--- a/table/data/abundance_biomass.xlsx
+++ b/table/data/abundance_biomass.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -392,7 +392,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -407,16 +407,16 @@
         <v>1836.292185796421</v>
       </c>
       <c r="E2">
-        <v>51.88829818482505</v>
+        <v>51.88829818482504</v>
       </c>
       <c r="F2">
-        <v>63.33526841717943</v>
+        <v>63.33526841717942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -440,7 +440,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -527,16 +527,16 @@
         <v>1988.863748323868</v>
       </c>
       <c r="E7">
-        <v>93.61407208076503</v>
+        <v>93.61407208076504</v>
       </c>
       <c r="F7">
-        <v>13.04166617688349</v>
+        <v>13.04166617688351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -578,13 +578,13 @@
         <v>1.737269684378963</v>
       </c>
       <c r="F9">
-        <v>0.8088966589264727</v>
+        <v>0.8088966589264726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -596,10 +596,10 @@
         <v>6917.934859727717</v>
       </c>
       <c r="D10">
-        <v>777.9622122079992</v>
+        <v>777.9622122079993</v>
       </c>
       <c r="E10">
-        <v>30.04640636922771</v>
+        <v>30.04640636922772</v>
       </c>
       <c r="F10">
         <v>25.98275475732156</v>
@@ -608,7 +608,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>6663.286950780685</v>
+        <v>6663.286950780684</v>
       </c>
       <c r="D11">
         <v>514.5736357270057</v>
@@ -632,7 +632,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -647,7 +647,7 @@
         <v>265.0459469450928</v>
       </c>
       <c r="E12">
-        <v>35.38082624789595</v>
+        <v>35.38082624789594</v>
       </c>
       <c r="F12">
         <v>15.72381527440467</v>
